--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1952,28 +1952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.7196819215989</v>
+        <v>325.8011800444447</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.8295415172191</v>
+        <v>445.7755478704548</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.9110729934864</v>
+        <v>403.2313552316088</v>
       </c>
       <c r="AD2" t="n">
-        <v>282719.6819215989</v>
+        <v>325801.1800444447</v>
       </c>
       <c r="AE2" t="n">
-        <v>386829.5415172191</v>
+        <v>445775.5478704548</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.424636935689119e-06</v>
+        <v>4.937177201802013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>349911.0729934864</v>
+        <v>403231.3552316088</v>
       </c>
     </row>
     <row r="3">
@@ -2058,28 +2058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.8062148992767</v>
+        <v>144.0730399987946</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.5018575204905</v>
+        <v>197.1270893802</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.9430837501696</v>
+        <v>178.3135566394172</v>
       </c>
       <c r="AD3" t="n">
-        <v>126806.2148992767</v>
+        <v>144073.0399987946</v>
       </c>
       <c r="AE3" t="n">
-        <v>173501.8575204904</v>
+        <v>197127.0893802</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.843108974873536e-06</v>
+        <v>8.423802277477146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.202083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>156943.0837501696</v>
+        <v>178313.5566394172</v>
       </c>
     </row>
     <row r="4">
@@ -2164,28 +2164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.14445796868986</v>
+        <v>109.325942213636</v>
       </c>
       <c r="AB4" t="n">
-        <v>126.0761125192928</v>
+        <v>149.5845772568047</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.04358528942</v>
+        <v>135.3084351467288</v>
       </c>
       <c r="AD4" t="n">
-        <v>92144.45796868987</v>
+        <v>109325.942213636</v>
       </c>
       <c r="AE4" t="n">
-        <v>126076.1125192928</v>
+        <v>149584.5772568047</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.037902436142711e-06</v>
+        <v>1.014629349293012e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.318750000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>114043.58528942</v>
+        <v>135308.4351467288</v>
       </c>
     </row>
     <row r="5">
@@ -2270,28 +2270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.86130905927074</v>
+        <v>109.0427933042169</v>
       </c>
       <c r="AB5" t="n">
-        <v>125.6886956897775</v>
+        <v>149.1971604272894</v>
       </c>
       <c r="AC5" t="n">
-        <v>113.6931429783706</v>
+        <v>134.9579928356793</v>
       </c>
       <c r="AD5" t="n">
-        <v>91861.30905927074</v>
+        <v>109042.7933042169</v>
       </c>
       <c r="AE5" t="n">
-        <v>125688.6956897775</v>
+        <v>149197.1604272894</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.068684050346348e-06</v>
+        <v>1.019067025073971e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AH5" t="n">
-        <v>113693.1429783706</v>
+        <v>134957.9928356793</v>
       </c>
     </row>
   </sheetData>
@@ -2567,28 +2567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.1324067017709</v>
+        <v>209.7167600672109</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.9921292626287</v>
+        <v>286.9437231743025</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.9921786804509</v>
+        <v>259.5582169626763</v>
       </c>
       <c r="AD2" t="n">
-        <v>176132.4067017709</v>
+        <v>209716.7600672109</v>
       </c>
       <c r="AE2" t="n">
-        <v>240992.1292626287</v>
+        <v>286943.7231743025</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.550853863201283e-06</v>
+        <v>6.662278857369707e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.908333333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>217992.1786804509</v>
+        <v>259558.2169626763</v>
       </c>
     </row>
     <row r="3">
@@ -2673,28 +2673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.11204590550321</v>
+        <v>106.8616416694884</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.2952766707501</v>
+        <v>146.2128125350366</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.5281485113337</v>
+        <v>132.2584669177036</v>
       </c>
       <c r="AD3" t="n">
-        <v>90112.04590550321</v>
+        <v>106861.6416694885</v>
       </c>
       <c r="AE3" t="n">
-        <v>123295.2766707501</v>
+        <v>146212.8125350366</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.029186549040828e-06</v>
+        <v>1.029046467715831e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.472916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>111528.1485113337</v>
+        <v>132258.4669177036</v>
       </c>
     </row>
     <row r="4">
@@ -2779,28 +2779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.31102803231711</v>
+        <v>105.0606237963024</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.8310445613573</v>
+        <v>143.7485804256438</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.2990992558891</v>
+        <v>130.0294176622589</v>
       </c>
       <c r="AD4" t="n">
-        <v>88311.02803231712</v>
+        <v>105060.6237963024</v>
       </c>
       <c r="AE4" t="n">
-        <v>120831.0445613573</v>
+        <v>143748.5804256437</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.152786260994462e-06</v>
+        <v>1.04714100057667e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.395833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>109299.0992558891</v>
+        <v>130029.4176622589</v>
       </c>
     </row>
   </sheetData>
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.70490611605466</v>
+        <v>105.2395730930852</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.738210049087</v>
+        <v>143.9934267481876</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.0242475461941</v>
+        <v>130.2508961954233</v>
       </c>
       <c r="AD2" t="n">
-        <v>89704.90611605466</v>
+        <v>105239.5730930852</v>
       </c>
       <c r="AE2" t="n">
-        <v>122738.210049087</v>
+        <v>143993.4267481876</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.981510638271559e-06</v>
+        <v>1.080125870561582e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.025</v>
       </c>
       <c r="AH2" t="n">
-        <v>111024.2475461941</v>
+        <v>130250.8961954233</v>
       </c>
     </row>
   </sheetData>
@@ -3373,28 +3373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.01956959581453</v>
+        <v>111.9986252764763</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.4322582702959</v>
+        <v>153.2414601338361</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.9383725687464</v>
+        <v>138.6163102544448</v>
       </c>
       <c r="AD2" t="n">
-        <v>88019.56959581454</v>
+        <v>111998.6252764763</v>
       </c>
       <c r="AE2" t="n">
-        <v>120432.2582702959</v>
+        <v>153241.4601338361</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.852336035891639e-06</v>
+        <v>1.035589412076318e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.897916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>108938.3725687464</v>
+        <v>138616.3102544447</v>
       </c>
     </row>
     <row r="3">
@@ -3479,28 +3479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.04603861703505</v>
+        <v>107.0250942976969</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.6272537684321</v>
+        <v>146.4364556319722</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.7828281456545</v>
+        <v>132.4607658313528</v>
       </c>
       <c r="AD3" t="n">
-        <v>83046.03861703505</v>
+        <v>107025.0942976969</v>
       </c>
       <c r="AE3" t="n">
-        <v>113627.2537684321</v>
+        <v>146436.4556319722</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.199350937413024e-06</v>
+        <v>1.088033564839105e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.6625</v>
       </c>
       <c r="AH3" t="n">
-        <v>102782.8281456545</v>
+        <v>132460.7658313528</v>
       </c>
     </row>
   </sheetData>
@@ -3776,28 +3776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.91659555552154</v>
+        <v>113.5930304669447</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.3960969961301</v>
+        <v>155.4229956556264</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.5239080898708</v>
+        <v>140.5896430878404</v>
       </c>
       <c r="AD2" t="n">
-        <v>90916.59555552153</v>
+        <v>113593.0304669447</v>
       </c>
       <c r="AE2" t="n">
-        <v>124396.0969961301</v>
+        <v>155422.9956556263</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.564240010096694e-06</v>
+        <v>1.037470250168376e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.55</v>
       </c>
       <c r="AH2" t="n">
-        <v>112523.9080898708</v>
+        <v>140589.6430878404</v>
       </c>
     </row>
   </sheetData>
@@ -4073,28 +4073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.8396440876512</v>
+        <v>235.5657824968198</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.1659055772436</v>
+        <v>322.3114960408614</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.8090191503152</v>
+        <v>291.550539225843</v>
       </c>
       <c r="AD2" t="n">
-        <v>201839.6440876512</v>
+        <v>235565.7824968199</v>
       </c>
       <c r="AE2" t="n">
-        <v>276165.9055772435</v>
+        <v>322311.4960408614</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.256170995767773e-06</v>
+        <v>6.205013337979796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.320833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>249809.0191503152</v>
+        <v>291550.539225843</v>
       </c>
     </row>
     <row r="3">
@@ -4179,28 +4179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.65885095351376</v>
+        <v>112.6925571129658</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.8846600452025</v>
+        <v>154.1909282866324</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.3932117882972</v>
+        <v>139.4751624993254</v>
       </c>
       <c r="AD3" t="n">
-        <v>95658.85095351376</v>
+        <v>112692.5571129658</v>
       </c>
       <c r="AE3" t="n">
-        <v>130884.6600452024</v>
+        <v>154190.9282866324</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.750378729846737e-06</v>
+        <v>9.841284595183009e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.616666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>118393.2117882972</v>
+        <v>139475.1624993254</v>
       </c>
     </row>
     <row r="4">
@@ -4285,28 +4285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.01912777553335</v>
+        <v>105.8822417343932</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.7998978691811</v>
+        <v>144.8727543357643</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.1754865638087</v>
+        <v>131.0463019921859</v>
       </c>
       <c r="AD4" t="n">
-        <v>89019.12777553334</v>
+        <v>105882.2417343932</v>
       </c>
       <c r="AE4" t="n">
-        <v>121799.8978691811</v>
+        <v>144872.7543357642</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.138187127907945e-06</v>
+        <v>1.040666514144001e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.364583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>110175.4865638087</v>
+        <v>131046.3019921859</v>
       </c>
     </row>
   </sheetData>
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.58327324384784</v>
+        <v>122.1540394588794</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.6765189379273</v>
+        <v>167.1365458434466</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.5866897621359</v>
+        <v>151.1852684858097</v>
       </c>
       <c r="AD2" t="n">
-        <v>92583.27324384784</v>
+        <v>122154.0394588794</v>
       </c>
       <c r="AE2" t="n">
-        <v>126676.5189379273</v>
+        <v>167136.5458434466</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.219962164675445e-06</v>
+        <v>9.965840442479618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.995833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>114586.6897621359</v>
+        <v>151185.2684858097</v>
       </c>
     </row>
   </sheetData>
@@ -4879,28 +4879,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.8305491038089</v>
+        <v>151.5301875697272</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.5351526526806</v>
+        <v>207.3302876728771</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.9732012416736</v>
+        <v>187.5429760073232</v>
       </c>
       <c r="AD2" t="n">
-        <v>126830.5491038089</v>
+        <v>151530.1875697272</v>
       </c>
       <c r="AE2" t="n">
-        <v>173535.1526526806</v>
+        <v>207330.2876728771</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.558287649270596e-06</v>
+        <v>8.25318560370821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.827083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>156973.2012416736</v>
+        <v>187542.9760073232</v>
       </c>
     </row>
     <row r="3">
@@ -4985,28 +4985,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.31982044705995</v>
+        <v>101.700994744985</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.7383423804453</v>
+        <v>139.1517877412604</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.5969988269784</v>
+        <v>125.8713364200326</v>
       </c>
       <c r="AD3" t="n">
-        <v>85319.82044705996</v>
+        <v>101700.994744985</v>
       </c>
       <c r="AE3" t="n">
-        <v>116738.3423804453</v>
+        <v>139151.7877412604</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.212386287280515e-06</v>
+        <v>1.070926271373836e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.491666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>105596.9988269784</v>
+        <v>125871.3364200326</v>
       </c>
     </row>
   </sheetData>
@@ -5282,28 +5282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.1955919400546</v>
+        <v>186.3564511595659</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.5549203398988</v>
+        <v>254.9811179427846</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.505468293497</v>
+        <v>230.6460779146461</v>
       </c>
       <c r="AD2" t="n">
-        <v>161195.5919400546</v>
+        <v>186356.4511595659</v>
       </c>
       <c r="AE2" t="n">
-        <v>220554.9203398988</v>
+        <v>254981.1179427846</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.858404988600832e-06</v>
+        <v>7.144005076114326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.533333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>199505.468293497</v>
+        <v>230646.0779146461</v>
       </c>
     </row>
     <row r="3">
@@ -5388,28 +5388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.25078141759569</v>
+        <v>103.8825423148683</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.3803683683167</v>
+        <v>142.1366773694595</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.986873562675</v>
+        <v>128.5713523714363</v>
       </c>
       <c r="AD3" t="n">
-        <v>87250.78141759569</v>
+        <v>103882.5423148683</v>
       </c>
       <c r="AE3" t="n">
-        <v>119380.3683683167</v>
+        <v>142136.6773694595</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.17654516754565e-06</v>
+        <v>1.055269686784075e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.422916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>107986.873562675</v>
+        <v>128571.3523714363</v>
       </c>
     </row>
     <row r="4">
@@ -5494,28 +5494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.08659115581654</v>
+        <v>103.7183520530891</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.1557160085874</v>
+        <v>141.9120250097303</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.7836617088567</v>
+        <v>128.3681405176179</v>
       </c>
       <c r="AD4" t="n">
-        <v>87086.59115581654</v>
+        <v>103718.3520530891</v>
       </c>
       <c r="AE4" t="n">
-        <v>119155.7160085874</v>
+        <v>141912.0250097303</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.200159240083533e-06</v>
+        <v>1.058742000320599e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.408333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>107783.6617088567</v>
+        <v>128368.140517618</v>
       </c>
     </row>
   </sheetData>
@@ -5791,28 +5791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.1436598298457</v>
+        <v>288.3863893171451</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.7305674059983</v>
+        <v>394.5829805732918</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.5436500957901</v>
+        <v>356.9245347080675</v>
       </c>
       <c r="AD2" t="n">
-        <v>254143.6598298457</v>
+        <v>288386.389317145</v>
       </c>
       <c r="AE2" t="n">
-        <v>347730.5674059983</v>
+        <v>394582.9805732918</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.695382403567324e-06</v>
+        <v>5.346377663096465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.289583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>314543.6500957901</v>
+        <v>356924.5347080675</v>
       </c>
     </row>
     <row r="3">
@@ -5897,28 +5897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.694626322295</v>
+        <v>136.8587062475042</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.7714682883236</v>
+        <v>187.2561196677471</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.1413492096306</v>
+        <v>169.3846584223246</v>
       </c>
       <c r="AD3" t="n">
-        <v>119694.626322295</v>
+        <v>136858.7062475042</v>
       </c>
       <c r="AE3" t="n">
-        <v>163771.4682883236</v>
+        <v>187256.1196677471</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.089366706395657e-06</v>
+        <v>8.809928333817136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>148141.3492096306</v>
+        <v>169384.6584223246</v>
       </c>
     </row>
     <row r="4">
@@ -6003,28 +6003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.38929076057083</v>
+        <v>107.4680298312084</v>
       </c>
       <c r="AB4" t="n">
-        <v>123.6746153126332</v>
+        <v>147.042499569859</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.8712836056408</v>
+        <v>133.0089697863959</v>
       </c>
       <c r="AD4" t="n">
-        <v>90389.29076057083</v>
+        <v>107468.0298312084</v>
       </c>
       <c r="AE4" t="n">
-        <v>123674.6153126332</v>
+        <v>147042.499569859</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.117985883194441e-06</v>
+        <v>1.029810627863846e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.304166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>111871.2836056408</v>
+        <v>133008.9697863959</v>
       </c>
     </row>
     <row r="5">
@@ -6109,28 +6109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.62957402063083</v>
+        <v>107.7083130912684</v>
       </c>
       <c r="AB5" t="n">
-        <v>124.0033814695964</v>
+        <v>147.3712657268222</v>
       </c>
       <c r="AC5" t="n">
-        <v>112.1686727820097</v>
+        <v>133.3063589627648</v>
       </c>
       <c r="AD5" t="n">
-        <v>90629.57402063083</v>
+        <v>107708.3130912684</v>
       </c>
       <c r="AE5" t="n">
-        <v>124003.3814695964</v>
+        <v>147371.2657268222</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.117544731295885e-06</v>
+        <v>1.029746803220036e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.304166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>112168.6727820097</v>
+        <v>133306.3589627648</v>
       </c>
     </row>
   </sheetData>
@@ -6406,28 +6406,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.745999589471</v>
+        <v>119.9377075644197</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.9498535887311</v>
+        <v>164.1040627677859</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.4023587901317</v>
+        <v>148.4422013387724</v>
       </c>
       <c r="AD2" t="n">
-        <v>103745.999589471</v>
+        <v>119937.7075644197</v>
       </c>
       <c r="AE2" t="n">
-        <v>141949.8535887311</v>
+        <v>164104.0627677859</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.470675793528031e-06</v>
+        <v>9.716914281548539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.122916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>128402.3587901317</v>
+        <v>148442.2013387724</v>
       </c>
     </row>
     <row r="3">
@@ -6512,28 +6512,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.90359775556544</v>
+        <v>100.1805570765347</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.8006040146079</v>
+        <v>137.0714578463119</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.844195491143</v>
+        <v>123.989550290496</v>
       </c>
       <c r="AD3" t="n">
-        <v>83903.59775556544</v>
+        <v>100180.5570765347</v>
       </c>
       <c r="AE3" t="n">
-        <v>114800.6040146079</v>
+        <v>137071.4578463119</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.204222680580146e-06</v>
+        <v>1.081847035550783e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>103844.195491143</v>
+        <v>123989.550290496</v>
       </c>
     </row>
   </sheetData>
@@ -6809,28 +6809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.47131796177757</v>
+        <v>105.9605530834469</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.8408956130233</v>
+        <v>144.9799033783924</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.0715189089371</v>
+        <v>131.1432248805703</v>
       </c>
       <c r="AD2" t="n">
-        <v>82471.31796177757</v>
+        <v>105960.5530834469</v>
       </c>
       <c r="AE2" t="n">
-        <v>112840.8956130233</v>
+        <v>144979.9033783924</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.047038028106976e-06</v>
+        <v>1.080837166485497e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>102071.5189089371</v>
+        <v>131143.2248805703</v>
       </c>
     </row>
     <row r="3">
@@ -6915,28 +6915,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.53562167139597</v>
+        <v>106.0248567930653</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.9288787854026</v>
+        <v>145.0678865507717</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.1511050908297</v>
+        <v>131.2228110624629</v>
       </c>
       <c r="AD3" t="n">
-        <v>82535.62167139597</v>
+        <v>106024.8567930653</v>
       </c>
       <c r="AE3" t="n">
-        <v>112928.8787854026</v>
+        <v>145067.8865507717</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.066095273803208e-06</v>
+        <v>1.083760065348421e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.885416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>102151.1050908297</v>
+        <v>131222.8110624629</v>
       </c>
     </row>
   </sheetData>
@@ -11569,28 +11569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.0003232892667</v>
+        <v>105.3369329780004</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.1424128583614</v>
+        <v>144.1266388379435</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.3898738066537</v>
+        <v>130.3713947102972</v>
       </c>
       <c r="AD2" t="n">
-        <v>90000.3232892667</v>
+        <v>105336.9329780004</v>
       </c>
       <c r="AE2" t="n">
-        <v>123142.4128583614</v>
+        <v>144126.6388379435</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.807961488714199e-06</v>
+        <v>1.063730553658691e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.245833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>111389.8738066537</v>
+        <v>130371.3947102972</v>
       </c>
     </row>
   </sheetData>
@@ -11866,28 +11866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.0492990898881</v>
+        <v>133.1309828719749</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.3648413458313</v>
+        <v>182.1556840898018</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.7777406981333</v>
+        <v>164.7710012574305</v>
       </c>
       <c r="AD2" t="n">
-        <v>104049.2990898881</v>
+        <v>133130.9828719749</v>
       </c>
       <c r="AE2" t="n">
-        <v>142364.8413458313</v>
+        <v>182155.6840898018</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.645948508761471e-06</v>
+        <v>9.201067533415404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.789583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>128777.7406981333</v>
+        <v>164771.0012574305</v>
       </c>
     </row>
   </sheetData>
@@ -12163,28 +12163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.0167600338859</v>
+        <v>172.8230956055286</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.523061116858</v>
+        <v>236.4641838242506</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.1945444068241</v>
+        <v>213.8963739996989</v>
       </c>
       <c r="AD2" t="n">
-        <v>148016.7600338859</v>
+        <v>172823.0956055286</v>
       </c>
       <c r="AE2" t="n">
-        <v>202523.061116858</v>
+        <v>236464.1838242506</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.180947843152996e-06</v>
+        <v>7.654232893980983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>183194.5444068242</v>
+        <v>213896.3739996988</v>
       </c>
     </row>
     <row r="3">
@@ -12269,28 +12269,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.89980791913305</v>
+        <v>102.4089478515546</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.5319068269767</v>
+        <v>140.1204404143553</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.3148265965078</v>
+        <v>126.7475422415202</v>
       </c>
       <c r="AD3" t="n">
-        <v>85899.80791913305</v>
+        <v>102408.9478515546</v>
       </c>
       <c r="AE3" t="n">
-        <v>117531.9068269767</v>
+        <v>140120.4404143553</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.22218374607443e-06</v>
+        <v>1.06699156349614e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.439583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>106314.8265965078</v>
+        <v>126747.5422415202</v>
       </c>
     </row>
     <row r="4">
@@ -12375,28 +12375,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.16407571505808</v>
+        <v>102.6732156474797</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.8934896840334</v>
+        <v>140.4820232714121</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.6419004931719</v>
+        <v>127.0746161381843</v>
       </c>
       <c r="AD4" t="n">
-        <v>86164.07571505808</v>
+        <v>102673.2156474797</v>
       </c>
       <c r="AE4" t="n">
-        <v>117893.4896840334</v>
+        <v>140482.0232714121</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.22141439740003e-06</v>
+        <v>1.066877901399767e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.439583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>106641.9004931719</v>
+        <v>127074.6161381843</v>
       </c>
     </row>
   </sheetData>
@@ -12672,28 +12672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.3868953035195</v>
+        <v>256.5028266663456</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.279561171528</v>
+        <v>350.9584835507912</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.2395469124536</v>
+        <v>317.4634984541337</v>
       </c>
       <c r="AD2" t="n">
-        <v>222386.8953035195</v>
+        <v>256502.8266663456</v>
       </c>
       <c r="AE2" t="n">
-        <v>304279.561171528</v>
+        <v>350958.4835507912</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.965137235538186e-06</v>
+        <v>5.758049436164647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.789583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>275239.5469124536</v>
+        <v>317463.4984541337</v>
       </c>
     </row>
     <row r="3">
@@ -12778,28 +12778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.0456090384407</v>
+        <v>128.5472167059887</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.9915483377616</v>
+        <v>175.8839730000114</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.5355128473246</v>
+        <v>159.0978534716459</v>
       </c>
       <c r="AD3" t="n">
-        <v>103045.6090384407</v>
+        <v>128547.2167059887</v>
       </c>
       <c r="AE3" t="n">
-        <v>140991.5483377616</v>
+        <v>175883.9730000114</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.411802762559936e-06</v>
+        <v>9.311021306112776e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.81875</v>
       </c>
       <c r="AH3" t="n">
-        <v>127535.5128473246</v>
+        <v>159097.8534716459</v>
       </c>
     </row>
     <row r="4">
@@ -12884,28 +12884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.81309824722243</v>
+        <v>106.7858125826149</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.8862432960507</v>
+        <v>146.109059833033</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.1581527078335</v>
+        <v>132.1646162279614</v>
       </c>
       <c r="AD4" t="n">
-        <v>89813.09824722243</v>
+        <v>106785.8125826149</v>
       </c>
       <c r="AE4" t="n">
-        <v>122886.2432960507</v>
+        <v>146109.059833033</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.121441039775019e-06</v>
+        <v>1.034153602458873e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.337499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>111158.1527078335</v>
+        <v>132164.6162279614</v>
       </c>
     </row>
   </sheetData>
@@ -13181,28 +13181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.9002891008011</v>
+        <v>156.2776936358245</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.9988181101625</v>
+        <v>213.826034917694</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.2971765221612</v>
+        <v>193.4187782519353</v>
       </c>
       <c r="AD2" t="n">
-        <v>127900.2891008011</v>
+        <v>156277.6936358245</v>
       </c>
       <c r="AE2" t="n">
-        <v>174998.8181101625</v>
+        <v>213826.034917694</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.675818216576974e-06</v>
+        <v>7.794310386264845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.489583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>158297.1765221612</v>
+        <v>193418.7782519353</v>
       </c>
     </row>
   </sheetData>
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.4624237681457</v>
+        <v>107.2047058410214</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.1969703017978</v>
+        <v>146.6822080694508</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.2981717326781</v>
+        <v>132.6830640011142</v>
       </c>
       <c r="AD2" t="n">
-        <v>83462.4237681457</v>
+        <v>107204.7058410214</v>
       </c>
       <c r="AE2" t="n">
-        <v>114196.9703017978</v>
+        <v>146682.2080694507</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.076594434873754e-06</v>
+        <v>1.076991592967431e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.808333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>103298.1717326781</v>
+        <v>132683.0640011142</v>
       </c>
     </row>
     <row r="3">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.49304632318253</v>
+        <v>106.2353283960582</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.8706253156852</v>
+        <v>145.3558630833382</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.0984112505028</v>
+        <v>131.4833035189389</v>
       </c>
       <c r="AD3" t="n">
-        <v>82493.04632318253</v>
+        <v>106235.3283960582</v>
       </c>
       <c r="AE3" t="n">
-        <v>112870.6253156852</v>
+        <v>145355.8630833382</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.163796498522596e-06</v>
+        <v>1.090262932776929e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>102098.4112505028</v>
+        <v>131483.3035189389</v>
       </c>
     </row>
   </sheetData>
@@ -13881,28 +13881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.4396333836387</v>
+        <v>139.7677046421397</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.9495992326169</v>
+        <v>191.2363396072371</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.8751111655542</v>
+        <v>172.9850117570647</v>
       </c>
       <c r="AD2" t="n">
-        <v>115439.6333836387</v>
+        <v>139767.7046421397</v>
       </c>
       <c r="AE2" t="n">
-        <v>157949.5992326169</v>
+        <v>191236.3396072371</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.960310726964804e-06</v>
+        <v>8.898211623975937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.495833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>142875.1111655542</v>
+        <v>172985.0117570647</v>
       </c>
     </row>
     <row r="3">
@@ -13987,28 +13987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.34814451892527</v>
+        <v>100.765927679559</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.4088525082555</v>
+        <v>137.8723877300978</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.3943936022393</v>
+        <v>124.7140405502858</v>
       </c>
       <c r="AD3" t="n">
-        <v>84348.14451892527</v>
+        <v>100765.927679559</v>
       </c>
       <c r="AE3" t="n">
-        <v>115408.8525082555</v>
+        <v>137872.3877300978</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.227210854579745e-06</v>
+        <v>1.07895803727493e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH3" t="n">
-        <v>104394.3936022393</v>
+        <v>124714.0405502858</v>
       </c>
     </row>
   </sheetData>
